--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>E-mail</t>
+  </si>
+  <si>
+    <t>gnk;kk</t>
+  </si>
+  <si>
+    <t>bknkn</t>
   </si>
 </sst>
 </file>
@@ -349,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -369,6 +375,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488345D5-BB6D-A84B-8EC6-65736965C261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -31,12 +32,15 @@
   </si>
   <si>
     <t>bknkn</t>
+  </si>
+  <si>
+    <t>Afnan m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,20 +358,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,12 +379,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5F81C-7AA5-44E2-8B2A-87F7B612A59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,20 +28,28 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>gnk;kk</t>
+    <t>Mahmoud Ahmed Mohamed Talaat</t>
   </si>
   <si>
-    <t>bknkn</t>
+    <t>tmahmoud793@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,15 +78,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="ارتباط تشعبي" xfId="1" builtinId="8"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,20 +366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,16 +387,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D70BFB24-5AF6-4058-BE35-37E2AFCBABF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5F81C-7AA5-44E2-8B2A-87F7B612A59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29860A9-ADF8-407E-AAC8-0700032D869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D70BFB24-5AF6-4058-BE35-37E2AFCBABF8}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B27EA4A-600B-4ACE-8B3A-9FF32C531B8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488345D5-BB6D-A84B-8EC6-65736965C261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -36,21 +30,181 @@
   <si>
     <t>Afnan m</t>
   </si>
+  <si>
+    <t>yasmeen hosam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,8 +217,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -72,25 +412,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -139,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -174,7 +800,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -348,30 +974,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.1619047619048" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -387,13 +1008,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -33,18 +33,21 @@
   <si>
     <t>yasmeen hosam</t>
   </si>
+  <si>
+    <t>yasmeen53</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +56,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,45 +80,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +118,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -147,6 +150,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,14 +172,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,28 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +215,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,25 +347,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,133 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,17 +420,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,15 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,151 +486,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,7 +979,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1013,9 +1009,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -31,16 +31,30 @@
   </si>
   <si>
     <t>bknkn</t>
+  </si>
+  <si>
+    <t>Ahmed Tarek</t>
+  </si>
+  <si>
+    <t>ahmedtarek2632@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,14 +83,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,8 +400,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>